--- a/working/zenkoku-03.xlsx
+++ b/working/zenkoku-03.xlsx
@@ -9,20 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="トレンド" sheetId="5" r:id="rId1"/>
     <sheet name="折れ線グラフの元データにする" sheetId="4" r:id="rId2"/>
     <sheet name="参院選投票率の推移" sheetId="2" r:id="rId3"/>
-    <sheet name="同日選か亥年か" sheetId="3" r:id="rId4"/>
-    <sheet name="知事選と県議選の日程" sheetId="1" r:id="rId5"/>
+    <sheet name="知事選と県議選の日程" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">知事選と県議選の日程!$C$1:$D$49</definedName>
-    <definedName name="chihou_UTF8" localSheetId="4">知事選と県議選の日程!$A$1:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">知事選と県議選の日程!$C$1:$D$49</definedName>
+    <definedName name="chihou_UTF8" localSheetId="3">知事選と県議選の日程!$A$1:$D$49</definedName>
     <definedName name="san_UTF8" localSheetId="2">参院選投票率の推移!$A$1:$Y$49</definedName>
-    <definedName name="youbi_UTF8" localSheetId="3">同日選か亥年か!$A$1:$E$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -76,22 +74,11 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="youbi_UTF8" type="6" refreshedVersion="5" deleted="1" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="C:\Users\0920334\Desktop\JNPC_Jun2019\data\san_csv_UTF8\差し替え候補\youbi_UTF8.csv" tab="0" comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="141">
   <si>
     <t>コード</t>
   </si>
@@ -471,27 +458,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>回</t>
-  </si>
-  <si>
-    <t>曜日</t>
-  </si>
-  <si>
-    <t>衆参同日選</t>
-  </si>
-  <si>
-    <t>亥年</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>火</t>
   </si>
   <si>
     <t>通し番号</t>
@@ -10093,11 +10059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="478668864"/>
-        <c:axId val="478670432"/>
+        <c:axId val="429736376"/>
+        <c:axId val="429738336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478668864"/>
+        <c:axId val="429736376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10140,7 +10106,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478670432"/>
+        <c:crossAx val="429738336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10148,7 +10114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478670432"/>
+        <c:axId val="429738336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="95"/>
@@ -10201,7 +10167,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478668864"/>
+        <c:crossAx val="429736376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10839,7 +10805,7 @@
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10850,7 +10816,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9286875" cy="6066518"/>
+    <xdr:ext cx="9289968" cy="6048994"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
@@ -10878,10 +10844,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="youbi_UTF8" connectionId="3" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="chihou_UTF8" connectionId="1" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -11188,11 +11150,11 @@
   </sheetPr>
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11219,47 +11181,47 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -11413,82 +11375,82 @@
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="J6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="K6" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="N6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="O6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="R6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="S6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="V6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="W6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="Z6" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
@@ -19142,338 +19104,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>17277</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="3">
-        <v>17282</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>18418</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>19473</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="3">
-        <v>19468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>20644</v>
-      </c>
-      <c r="C5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>21703</v>
-      </c>
-      <c r="C6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>22828</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>23927</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>25026</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>26111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>27217</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>28316</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>29394</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>30493</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>31599</v>
-      </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>32712</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>33811</v>
-      </c>
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>34903</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>35988</v>
-      </c>
-      <c r="C19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>37101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>38179</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>39292</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>40370</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>41476</v>
-      </c>
-      <c r="C24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>42561</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/working/zenkoku-03.xlsx
+++ b/working/zenkoku-03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="トレンド" sheetId="5" r:id="rId1"/>
@@ -10059,11 +10059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="429736376"/>
-        <c:axId val="429738336"/>
+        <c:axId val="461832968"/>
+        <c:axId val="461846296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429736376"/>
+        <c:axId val="461832968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10106,7 +10106,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429738336"/>
+        <c:crossAx val="461846296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10114,7 +10114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429738336"/>
+        <c:axId val="461846296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="95"/>
@@ -10167,9 +10167,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429736376"/>
+        <c:crossAx val="461832968"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10805,7 +10805,7 @@
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11150,7 +11150,7 @@
   </sheetPr>
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
